--- a/src/test/resources/testdata/LoginData.xlsx
+++ b/src/test/resources/testdata/LoginData.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\IdeaProjects\projectWithPOM\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vishwageethanjana/Documents/CODING/Java/excell_sheet_data_agument/src/test/resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71E0988-67F6-4181-8F1C-4A4A90DC4D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA33D7E-2928-5942-A2DB-1AAD5F83ECFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3060" windowWidth="18240" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Username</t>
   </si>
@@ -40,12 +40,25 @@
   </si>
   <si>
     <t>locked_out_user</t>
+  </si>
+  <si>
+    <t>incorrect-user</t>
+  </si>
+  <si>
+    <t>incorrecct_pass</t>
+  </si>
+  <si>
+    <t>correct_pass</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -371,19 +384,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.6640625"/>
+    <col min="2" max="2" customWidth="true" width="16.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -391,20 +404,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C2" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
